--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natal\OneDrive\Escritorio\Python\New folder\BAAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442E9ACA-8325-44EC-9322-2A63C175279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D81D00A-3691-48A0-8C17-2E9B01F28726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E9DDEDB2-3375-4768-A137-761F3DCE6D5F}"/>
   </bookViews>
